--- a/RESULTS/COLLECTED NO ORACLE/COLLECTED NO ORACLE RESULTS/COLLECTED RESULTS MAIN/DATA_FLAVORS_COLLECTED_RO.xlsx
+++ b/RESULTS/COLLECTED NO ORACLE/COLLECTED NO ORACLE RESULTS/COLLECTED RESULTS MAIN/DATA_FLAVORS_COLLECTED_RO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-760" yWindow="760" windowWidth="25600" windowHeight="28240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestLoss" sheetId="1" r:id="rId1"/>
@@ -153,22 +153,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Over</a:t>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Random Oracle </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> All Accuracy</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Accuracy</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Random Oracle</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -246,20 +244,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>TestAccuracy!$B$2:$Q$2</c:f>
@@ -357,20 +341,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>TestAccuracy!$B$3:$Q$3</c:f>
@@ -468,20 +438,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>TestAccuracy!$B$4:$Q$4</c:f>
@@ -608,6 +564,7 @@
         <c:axId val="178364464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1283,16 +1240,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1807,7 +1764,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="A1:Q4"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/RESULTS/COLLECTED NO ORACLE/COLLECTED NO ORACLE RESULTS/COLLECTED RESULTS MAIN/DATA_FLAVORS_COLLECTED_RO.xlsx
+++ b/RESULTS/COLLECTED NO ORACLE/COLLECTED NO ORACLE RESULTS/COLLECTED RESULTS MAIN/DATA_FLAVORS_COLLECTED_RO.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srose3/Development/GitHub/CS-660-Semester-Project-V2/RESULTS/COLLECTED NO ORACLE/COLLECTED NO ORACLE RESULTS/COLLECTED RESULTS MAIN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/staque/Development/GitHub/CS-660-Semester-Project-V2/RESULTS/COLLECTED NO ORACLE/COLLECTED NO ORACLE RESULTS/COLLECTED RESULTS MAIN/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28260" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestLoss" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -432,7 +434,9 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -507,11 +511,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="178362416"/>
-        <c:axId val="178364464"/>
+        <c:axId val="-279154192"/>
+        <c:axId val="-279152832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178362416"/>
+        <c:axId val="-279154192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -553,7 +557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178364464"/>
+        <c:crossAx val="-279152832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -561,7 +565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178364464"/>
+        <c:axId val="-279152832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -582,6 +586,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -612,7 +617,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178362416"/>
+        <c:crossAx val="-279154192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1241,15 +1246,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:colOff>546099</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>814988</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1763,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
